--- a/diverse/tidsplan-H24.xlsx
+++ b/diverse/tidsplan-H24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7697B4F7-1769-4CAC-B094-70DCE4F0596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2265DE-0702-4361-9037-03142B13DFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1635" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,6 @@
     <t>Introduksjon til R</t>
   </si>
   <si>
-    <t>Mandag 12:15 - 14:00</t>
-  </si>
-  <si>
-    <t>Onsdag 10:15 - 12:00</t>
-  </si>
-  <si>
     <t>Grunnleggende statistikk</t>
   </si>
   <si>
@@ -151,6 +145,12 @@
   </si>
   <si>
     <t>14.11: Speedrun dataanalyser</t>
+  </si>
+  <si>
+    <t>Mandag 10:15 - 11:00</t>
+  </si>
+  <si>
+    <t>Torsdag 12:15 - 14:00</t>
   </si>
 </sst>
 </file>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -516,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -527,13 +527,13 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -541,13 +541,13 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -555,13 +555,13 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -570,13 +570,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -585,13 +585,13 @@
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -600,13 +600,13 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -615,13 +615,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -629,13 +629,13 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -643,13 +643,13 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -657,13 +657,13 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -671,13 +671,13 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -685,13 +685,13 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/diverse/tidsplan-H24.xlsx
+++ b/diverse/tidsplan-H24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2265DE-0702-4361-9037-03142B13DFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6376FF-BF5C-49C3-A402-B2DAF1E8246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,10 +147,10 @@
     <t>14.11: Speedrun dataanalyser</t>
   </si>
   <si>
-    <t>Mandag 10:15 - 11:00</t>
-  </si>
-  <si>
     <t>Torsdag 12:15 - 14:00</t>
+  </si>
+  <si>
+    <t>Mandag 10:15 - 12:00</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">

--- a/diverse/tidsplan-H24.xlsx
+++ b/diverse/tidsplan-H24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6376FF-BF5C-49C3-A402-B2DAF1E8246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D563BB-A5DE-4FD7-8E91-F85FCA672AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="25996" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t xml:space="preserve"> 04.11: Kontakttime. Aud A</t>
   </si>
   <si>
-    <t>07.11: Oppgaveseminar 7, Aud A. Se \@ref(seminar) for oppgaver.</t>
-  </si>
-  <si>
     <t>11.11: (Ingen aktivitet)</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Mandag 10:15 - 12:00</t>
+  </si>
+  <si>
+    <t>07.11: (Ingen aktivitet)</t>
   </si>
 </sst>
 </file>
@@ -484,17 +484,17 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>34</v>
       </c>
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>35</v>
       </c>
@@ -536,7 +536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>36</v>
       </c>
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>37</v>
       </c>
@@ -565,7 +565,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>38</v>
       </c>
@@ -580,7 +580,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>39</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>40</v>
       </c>
@@ -610,7 +610,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>41</v>
       </c>
@@ -624,7 +624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>42</v>
       </c>
@@ -638,7 +638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>43</v>
       </c>
@@ -652,7 +652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>44</v>
       </c>
@@ -666,7 +666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>45</v>
       </c>
@@ -677,10 +677,10 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>46</v>
       </c>
@@ -688,10 +688,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/diverse/tidsplan-H24.xlsx
+++ b/diverse/tidsplan-H24.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D563BB-A5DE-4FD7-8E91-F85FCA672AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A06A4F-C5C2-4243-AE46-D7C2A8D856D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="25996" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,9 +135,6 @@
     <t>31.10: **Oppgaveseminar  6**, Aud A. Se \@ref(seminar) for oppgaver.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04.11: Kontakttime. Aud A</t>
-  </si>
-  <si>
     <t>11.11: (Ingen aktivitet)</t>
   </si>
   <si>
@@ -150,7 +147,10 @@
     <t>Mandag 10:15 - 12:00</t>
   </si>
   <si>
-    <t>07.11: (Ingen aktivitet)</t>
+    <t xml:space="preserve"> 04.11: (Ingen aktivitet)</t>
+  </si>
+  <si>
+    <t>07.11: Kontakttime. Aud A</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -674,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -688,10 +688,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
